--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_발해.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_발해.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>발해 건국
-1. 698년 : 고왕
-2. 695년 : 고왕
-3. 717년 : 무왕</t>
+1. 695년 : 고왕
+2. 788년 : 문왕
+3. 817년 : 선왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 695년 : 고왕</t>
+          <t>1, 695년 : 고왕</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>당의 발해군왕 책봉 및 국호 발해 사용
-1. 698년 : 고왕
-2. 788년 : 문왕
-3. 725년 : 무왕</t>
+1. 725년 : 무왕
+2. 698년 : 고왕
+3. 918년 : 애왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 698년 : 고왕</t>
+          <t>2, 698년 : 고왕</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>발해 연호 인안 사용
-1. 733년 : 문왕
-2. 717년 : 무왕
-3. 788년 : 문왕</t>
+1. 918년 : 애왕
+2. 751년 : 문왕
+3. 717년 : 무왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 717년 : 무왕</t>
+          <t>3, 717년 : 무왕</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
         <is>
           <t>발해 나당 견제위해 일본에 사신 파견
 1. 725년 : 무왕
-2. 695년 : 고왕
+2. 817년 : 선왕
 3. 733년 : 문왕</t>
         </is>
       </c>
@@ -509,89 +509,89 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>발해 장문휴 당 산둥반도 등주 공격
-1. 733년 : 문왕
+1. 757년 : 문왕
+2. 733년 : 문왕
+3. 727년 : 무왕</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 727년 : 무왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>발해 연호 대흥 사용
+1. 757년 : 문왕
+2. 817년 : 선왕
+3. 733년 : 문왕</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, 733년 : 문왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>발해 중경에서 상경 천도
+1. 817년 : 선왕
+2. 751년 : 문왕
+3. 780년 : 문왕</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, 751년 : 문왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>당의 발해국왕 책봉
+1. 751년 : 문왕
+2. 757년 : 문왕
+3. 918년 : 애왕</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 757년 : 문왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>발해 정혜공주묘 축조
+1. 757년 : 문왕
+2. 918년 : 애왕
+3. 780년 : 문왕</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 780년 : 문왕</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>발해 동경 천도
+1. 698년 : 고왕
 2. 780년 : 문왕
 3. 727년 : 무왕</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3, 727년 : 무왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>발해 연호 대흥 사용
-1. 733년 : 문왕
-2. 727년 : 무왕
-3. 751년 : 문왕</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1, 733년 : 문왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>발해 중경에서 상경 천도
-1. 751년 : 문왕
-2. 727년 : 무왕
-3. 780년 : 문왕</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1, 751년 : 문왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>당의 발해국왕 책봉
-1. 757년 : 문왕
-2. 733년 : 문왕
-3. 788년 : 문왕</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1, 757년 : 문왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>발해 정혜공주묘 축조
-1. 780년 : 문왕
-2. 695년 : 고왕
-3. 727년 : 무왕</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 780년 : 문왕</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>발해 동경 천도
-1. 918년 : 애왕
-2. 751년 : 문왕
-3. 780년 : 문왕</t>
-        </is>
-      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, 780년 : 문왕</t>
+          <t>2, 780년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>발해 정효공주묘 축조
-1. 788년 : 문왕
-2. 733년 : 문왕
-3. 717년 : 무왕</t>
+1. 717년 : 무왕
+2. 788년 : 문왕
+3. 698년 : 고왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, 788년 : 문왕</t>
+          <t>2, 788년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>발해 연호 건흥 사용
-1. 788년 : 문왕
-2. 733년 : 문왕
-3. 817년 : 선왕</t>
+1. 695년 : 고왕
+2. 817년 : 선왕
+3. 725년 : 무왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3, 817년 : 선왕</t>
+          <t>2, 817년 : 선왕</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>발해 멸망
-1. 725년 : 무왕
-2. 918년 : 애왕
-3. 757년 : 문왕</t>
+1. 727년 : 무왕
+2. 695년 : 고왕
+3. 918년 : 애왕</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, 918년 : 애왕</t>
+          <t>3, 918년 : 애왕</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_삼국시대_연도(왕)_발해.xlsx
+++ b/학습자료/단답형/객관식_삼국시대_연도(왕)_발해.xlsx
@@ -450,8 +450,8 @@
         <is>
           <t>발해 건국
 1. 695년 : 고왕
-2. 788년 : 문왕
-3. 817년 : 선왕</t>
+2. 733년 : 문왕
+3. 751년 : 문왕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>당의 발해군왕 책봉 및 국호 발해 사용
-1. 725년 : 무왕
-2. 698년 : 고왕
-3. 918년 : 애왕</t>
+1. 698년 : 고왕
+2. 727년 : 무왕
+3. 717년 : 무왕</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 698년 : 고왕</t>
+          <t>1, 698년 : 고왕</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>발해 연호 인안 사용
-1. 918년 : 애왕
-2. 751년 : 문왕
-3. 717년 : 무왕</t>
+1. 717년 : 무왕
+2. 780년 : 문왕
+3. 725년 : 무왕</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, 717년 : 무왕</t>
+          <t>1, 717년 : 무왕</t>
         </is>
       </c>
     </row>
@@ -495,8 +495,8 @@
         <is>
           <t>발해 나당 견제위해 일본에 사신 파견
 1. 725년 : 무왕
-2. 817년 : 선왕
-3. 733년 : 문왕</t>
+2. 717년 : 무왕
+3. 918년 : 애왕</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,8 +509,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>발해 장문휴 당 산둥반도 등주 공격
-1. 757년 : 문왕
-2. 733년 : 문왕
+1. 733년 : 문왕
+2. 725년 : 무왕
 3. 727년 : 무왕</t>
         </is>
       </c>
@@ -524,8 +524,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>발해 연호 대흥 사용
-1. 757년 : 문왕
-2. 817년 : 선왕
+1. 695년 : 고왕
+2. 757년 : 문왕
 3. 733년 : 문왕</t>
         </is>
       </c>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>발해 중경에서 상경 천도
-1. 817년 : 선왕
-2. 751년 : 문왕
-3. 780년 : 문왕</t>
+1. 733년 : 문왕
+2. 788년 : 문왕
+3. 751년 : 문왕</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 751년 : 문왕</t>
+          <t>3, 751년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>당의 발해국왕 책봉
-1. 751년 : 문왕
-2. 757년 : 문왕
-3. 918년 : 애왕</t>
+1. 780년 : 문왕
+2. 695년 : 고왕
+3. 757년 : 문왕</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 757년 : 문왕</t>
+          <t>3, 757년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>발해 정혜공주묘 축조
-1. 757년 : 문왕
-2. 918년 : 애왕
-3. 780년 : 문왕</t>
+1. 780년 : 문왕
+2. 757년 : 문왕
+3. 698년 : 고왕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3, 780년 : 문왕</t>
+          <t>1, 780년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>발해 동경 천도
-1. 698년 : 고왕
-2. 780년 : 문왕
-3. 727년 : 무왕</t>
+1. 780년 : 문왕
+2. 733년 : 문왕
+3. 918년 : 애왕</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2, 780년 : 문왕</t>
+          <t>1, 780년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>발해 정효공주묘 축조
-1. 717년 : 무왕
-2. 788년 : 문왕
-3. 698년 : 고왕</t>
+1. 727년 : 무왕
+2. 695년 : 고왕
+3. 788년 : 문왕</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, 788년 : 문왕</t>
+          <t>3, 788년 : 문왕</t>
         </is>
       </c>
     </row>
@@ -614,9 +614,9 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>발해 연호 건흥 사용
-1. 695년 : 고왕
+1. 725년 : 무왕
 2. 817년 : 선왕
-3. 725년 : 무왕</t>
+3. 918년 : 애왕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -629,8 +629,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>발해 멸망
-1. 727년 : 무왕
-2. 695년 : 고왕
+1. 733년 : 문왕
+2. 751년 : 문왕
 3. 918년 : 애왕</t>
         </is>
       </c>
